--- a/Excel/Excel vaja1.xlsx
+++ b/Excel/Excel vaja1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Stanje v skladišču</t>
   </si>
@@ -91,17 +91,25 @@
   </si>
   <si>
     <t>Površina</t>
+  </si>
+  <si>
+    <t>center merge</t>
+  </si>
+  <si>
+    <t>12 m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;m&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00\ &quot;kg&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00\ &quot;m^2&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\ &quot;Kg&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +148,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -436,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -486,7 +500,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,6 +516,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J49"/>
+  <dimension ref="B1:U49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,33 +825,49 @@
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="6">
         <f ca="1">TODAY()</f>
-        <v>43788</v>
+        <v>43790</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="39"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="38"/>
+      <c r="J3" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="Q3" s="48">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
@@ -840,8 +886,12 @@
       <c r="H4" s="29">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
@@ -861,8 +911,13 @@
       <c r="H5" s="29">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="44"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="46"/>
+      <c r="U5" s="47"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
@@ -882,8 +937,12 @@
       <c r="H6" s="29">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
@@ -903,9 +962,12 @@
       <c r="H7" s="31">
         <v>0.5</v>
       </c>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="40"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
@@ -925,8 +987,12 @@
       <c r="H8" s="30">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -947,8 +1013,12 @@
         <f>(H4+H5)*2*H6+H4*H5</f>
         <v>53.18</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
@@ -965,12 +1035,16 @@
       <c r="G10" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="33">
         <f>H7*H8*H9</f>
         <v>29.249000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="22" t="s">
         <v>12</v>
       </c>
@@ -980,8 +1054,18 @@
         <f>SUM(E5,E6,E7,E8,E9,E10)</f>
         <v>1669.65</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
@@ -989,8 +1073,12 @@
         <v>14</v>
       </c>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>1972</v>
       </c>
@@ -998,8 +1086,12 @@
         <v>123.43</v>
       </c>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1973</v>
       </c>
@@ -1008,8 +1100,17 @@
         <v>129.29292500000003</v>
       </c>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>123.43</v>
+      </c>
+      <c r="G15">
+        <v>123.43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>1974</v>
       </c>
@@ -1018,8 +1119,19 @@
         <v>135.43433893750003</v>
       </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <f>F15*1.045</f>
+        <v>128.98435000000001</v>
+      </c>
+      <c r="G16" s="49">
+        <f>G$15*1.054</f>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>1975</v>
       </c>
@@ -1028,8 +1140,19 @@
         <v>141.8674700370313</v>
       </c>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:F34" si="2">F16*1.045</f>
+        <v>134.78864575</v>
+      </c>
+      <c r="G17" s="49">
+        <f t="shared" ref="G17:G27" si="3">G$15*1.054</f>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>1976</v>
       </c>
@@ -1038,8 +1161,19 @@
         <v>148.6061748637903</v>
       </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>140.85413480874999</v>
+      </c>
+      <c r="G18" s="49">
+        <f t="shared" si="3"/>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>1977</v>
       </c>
@@ -1048,8 +1182,19 @@
         <v>155.66496816982036</v>
       </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>147.19257087514373</v>
+      </c>
+      <c r="G19" s="49">
+        <f t="shared" si="3"/>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>1978</v>
       </c>
@@ -1058,8 +1203,19 @@
         <v>163.05905415788683</v>
       </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>153.81623656452518</v>
+      </c>
+      <c r="G20" s="49">
+        <f t="shared" si="3"/>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>1979</v>
       </c>
@@ -1068,8 +1224,19 @@
         <v>170.80435923038647</v>
       </c>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>160.7379672099288</v>
+      </c>
+      <c r="G21" s="49">
+        <f t="shared" si="3"/>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>1980</v>
       </c>
@@ -1078,8 +1245,19 @@
         <v>178.91756629382985</v>
       </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>167.97117573437558</v>
+      </c>
+      <c r="G22" s="49">
+        <f t="shared" si="3"/>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>1981</v>
       </c>
@@ -1088,8 +1266,19 @@
         <v>187.41615069278677</v>
       </c>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>175.52987864242246</v>
+      </c>
+      <c r="G23" s="49">
+        <f t="shared" si="3"/>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>1982</v>
       </c>
@@ -1098,8 +1287,19 @@
         <v>196.31841785069417</v>
       </c>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>183.42872318133146</v>
+      </c>
+      <c r="G24" s="49">
+        <f t="shared" si="3"/>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>1983</v>
       </c>
@@ -1108,8 +1308,19 @@
         <v>205.64354269860218</v>
       </c>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>191.68301572449136</v>
+      </c>
+      <c r="G25" s="49">
+        <f t="shared" si="3"/>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>1984</v>
       </c>
@@ -1118,8 +1329,19 @@
         <v>215.41161097678579</v>
       </c>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>200.30875143209346</v>
+      </c>
+      <c r="G26" s="49">
+        <f t="shared" si="3"/>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>1985</v>
       </c>
@@ -1128,8 +1350,19 @@
         <v>225.64366249818315</v>
       </c>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>209.32264524653766</v>
+      </c>
+      <c r="G27" s="49">
+        <f t="shared" si="3"/>
+        <v>130.09522000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>1986</v>
       </c>
@@ -1138,8 +1371,15 @@
         <v>236.36173646684688</v>
       </c>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>218.74216428263185</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>1987</v>
       </c>
@@ -1148,8 +1388,15 @@
         <v>247.58891894902212</v>
       </c>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>228.58556167535028</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>1988</v>
       </c>
@@ -1158,8 +1405,15 @@
         <v>259.34939259910067</v>
       </c>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>238.87191195074104</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>1989</v>
       </c>
@@ -1168,8 +1422,15 @@
         <v>271.668488747558</v>
       </c>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>17</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>249.62114798852437</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>1990</v>
       </c>
@@ -1178,8 +1439,15 @@
         <v>284.57274196306702</v>
       </c>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>260.85409964800795</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>1991</v>
       </c>
@@ -1188,8 +1456,15 @@
         <v>298.08994720631273</v>
       </c>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>19</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>272.59253413216828</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>1992</v>
       </c>
@@ -1198,8 +1473,15 @@
         <v>312.24921969861259</v>
       </c>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>284.85919816811582</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>1993</v>
       </c>
@@ -1208,8 +1490,11 @@
         <v>327.08105763429671</v>
       </c>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>1994</v>
       </c>
@@ -1218,8 +1503,11 @@
         <v>342.61740787192582</v>
       </c>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>1995</v>
       </c>
@@ -1228,8 +1516,11 @@
         <v>358.89173474584231</v>
       </c>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>1996</v>
       </c>
@@ -1238,8 +1529,11 @@
         <v>375.93909214626984</v>
       </c>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>1997</v>
       </c>
@@ -1248,8 +1542,11 @@
         <v>393.7961990232177</v>
       </c>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>1998</v>
       </c>
@@ -1258,8 +1555,11 @@
         <v>412.50151847682059</v>
       </c>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>1999</v>
       </c>
@@ -1268,8 +1568,11 @@
         <v>432.09534060446958</v>
       </c>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>2000</v>
       </c>
@@ -1278,8 +1581,11 @@
         <v>452.61986928318191</v>
       </c>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>2001</v>
       </c>
@@ -1288,8 +1594,11 @@
         <v>474.11931307413312</v>
       </c>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>2002</v>
       </c>
@@ -1298,8 +1607,11 @@
         <v>496.63998044515449</v>
       </c>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>2003</v>
       </c>
@@ -1308,8 +1620,11 @@
         <v>520.23037951629942</v>
       </c>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>2004</v>
       </c>
@@ -1319,7 +1634,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>2005</v>
       </c>
@@ -1329,7 +1644,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>2006</v>
       </c>
@@ -1349,9 +1664,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1362,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
